--- a/VorlageTabsam.xlsx
+++ b/VorlageTabsam.xlsx
@@ -5,19 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\HJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dokumente\GitHub\PyTabsam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12030"/>
   </bookViews>
   <sheets>
-    <sheet name="Vorlage" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Inhalt" sheetId="2" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="DRUCKBEREICH_MI">#REF!</definedName>
@@ -136,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -152,9 +148,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -187,15 +180,9 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -257,55 +244,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Metadaten"/>
-      <sheetName val="Bedienungsanleitung"/>
-      <sheetName val="Inhalt"/>
-      <sheetName val="Control"/>
-      <sheetName val="Control(Analyse)"/>
-      <sheetName val="Control (LWF)"/>
-      <sheetName val="Control (WIB)"/>
-      <sheetName val="Control (ZUZ)"/>
-      <sheetName val="Control BAU"/>
-      <sheetName val="Control BEV"/>
-      <sheetName val="Control JB"/>
-      <sheetName val="Control VVZ"/>
-      <sheetName val="Control WIB"/>
-      <sheetName val="Control WOH"/>
-      <sheetName val="Control ZIK"/>
-      <sheetName val="Control ZIW"/>
-      <sheetName val="Control ZUZ"/>
-      <sheetName val="Jahrbuch"/>
-      <sheetName val="StSt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -572,15 +510,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.625" style="6" customWidth="1"/>
     <col min="3" max="4" width="22.5" style="6" customWidth="1"/>
     <col min="5" max="7" width="10.75" style="6" customWidth="1"/>
@@ -598,11 +536,11 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
@@ -612,8 +550,8 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
@@ -621,8 +559,8 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -630,9 +568,9 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -640,9 +578,9 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -650,197 +588,810 @@
       <c r="H6" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="25"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="16"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="16"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="16"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="16"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="16"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="16"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="16"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -851,18 +1402,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/VorlageTabsam.xlsx
+++ b/VorlageTabsam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dokumente\GitHub\PyTabsam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Project\Desktop-2020\python-git\PyTabsam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/VorlageTabsam.xlsx
+++ b/VorlageTabsam.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Daten\Project\Desktop-2020\python-git\PyTabsam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dokumente\GitHub\PyTabsam\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -512,9 +512,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
